--- a/coordinates.xlsx
+++ b/coordinates.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28507"/>
   <workbookPr codeName="ThisWorkbook" showPivotChartFilter="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishe\OneDrive\Desktop\data-visualisation\data-visualisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2BBD433-BC0F-4BD9-9C6E-ED729176BFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{C2BBD433-BC0F-4BD9-9C6E-ED729176BFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{285E0390-CE2C-459A-92A5-A89CF43F0F5C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="21" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -24,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,124 +38,124 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Collection</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>UnitPrice</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
     <t>TotalPrice</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>UnitPrice</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Phone</t>
   </si>
   <si>
+    <t>Manager</t>
+  </si>
+  <si>
     <t>Office branch 1</t>
   </si>
   <si>
+    <t>Joshua Lonaker</t>
+  </si>
+  <si>
     <t>Office branch 2</t>
   </si>
   <si>
+    <t>Dakota Blanco</t>
+  </si>
+  <si>
     <t>Office branch 3</t>
   </si>
   <si>
+    <t>Natasha Yarusso</t>
+  </si>
+  <si>
     <t>Office branch 4</t>
   </si>
   <si>
+    <t>Brooke Cazares</t>
+  </si>
+  <si>
     <t>Office branch 5</t>
   </si>
   <si>
+    <t>Rochelle Johnson</t>
+  </si>
+  <si>
     <t>Office branch 6</t>
   </si>
   <si>
+    <t>Joey Abreu</t>
+  </si>
+  <si>
     <t>Office branch 7</t>
   </si>
   <si>
+    <t>Preston Suarez</t>
+  </si>
+  <si>
     <t>Office branch 8</t>
   </si>
   <si>
+    <t>Lee Dong</t>
+  </si>
+  <si>
     <t>Office branch 9</t>
   </si>
   <si>
+    <t>Maa'iz al-Dia</t>
+  </si>
+  <si>
     <t>Office branch 10</t>
   </si>
   <si>
+    <t>Maja Nicholson</t>
+  </si>
+  <si>
     <t>Office branch 11</t>
   </si>
   <si>
+    <t>Sasha Jansen</t>
+  </si>
+  <si>
     <t>Office branch 12</t>
   </si>
   <si>
+    <t>Alexander Sherman</t>
+  </si>
+  <si>
     <t>Office branch 13</t>
   </si>
   <si>
+    <t>Edgar Sanchez</t>
+  </si>
+  <si>
     <t>Office branch 14</t>
   </si>
   <si>
-    <t>Collection</t>
-  </si>
-  <si>
-    <t>Manager</t>
-  </si>
-  <si>
-    <t>Joshua Lonaker</t>
-  </si>
-  <si>
-    <t>Dakota Blanco</t>
-  </si>
-  <si>
-    <t>Natasha Yarusso</t>
-  </si>
-  <si>
-    <t>Brooke Cazares</t>
-  </si>
-  <si>
-    <t>Rochelle Johnson</t>
-  </si>
-  <si>
-    <t>Joey Abreu</t>
-  </si>
-  <si>
-    <t>Preston Suarez</t>
-  </si>
-  <si>
-    <t>Lee Dong</t>
-  </si>
-  <si>
-    <t>Maa'iz al-Dia</t>
-  </si>
-  <si>
-    <t>Maja Nicholson</t>
-  </si>
-  <si>
-    <t>Sasha Jansen</t>
-  </si>
-  <si>
-    <t>Alexander Sherman</t>
-  </si>
-  <si>
-    <t>Edgar Sanchez</t>
-  </si>
-  <si>
     <t>Kolbi Strunk</t>
   </si>
   <si>
     <t>Office branch 15</t>
   </si>
   <si>
+    <t>josephStrunk</t>
+  </si>
+  <si>
     <t>Office branch 16</t>
-  </si>
-  <si>
-    <t>josephStrunk</t>
   </si>
   <si>
     <t>james</t>
@@ -172,7 +177,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,7 +239,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -257,6 +262,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -266,13 +297,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
@@ -582,55 +615,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{197C19E1-2B71-4C84-8263-79F329A2C260}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" customWidth="1"/>
-    <col min="9" max="9" width="19.109375" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5">
         <v>757504</v>
@@ -641,11 +674,11 @@
       <c r="D2" s="1">
         <v>1.7699999999999998</v>
       </c>
-      <c r="E2" s="1">
-        <v>54.610670861901603</v>
+      <c r="E2" s="7">
+        <v>77.209000000000003</v>
       </c>
       <c r="F2" s="1">
-        <v>15.6884531915882</v>
+        <v>28.613900000000001</v>
       </c>
       <c r="G2" s="1">
         <v>58.41</v>
@@ -654,12 +687,12 @@
         <v>25556999999</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" s="5">
         <v>674890</v>
@@ -670,11 +703,11 @@
       <c r="D3" s="1">
         <v>3.4899999999999998</v>
       </c>
-      <c r="E3" s="1">
-        <v>59.831240129063801</v>
+      <c r="E3" s="7">
+        <v>72.877700000000004</v>
       </c>
       <c r="F3" s="1">
-        <v>6.89541595875769</v>
+        <v>19.076000000000001</v>
       </c>
       <c r="G3" s="1">
         <v>303.63</v>
@@ -683,12 +716,12 @@
         <v>25556999999</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4" s="5">
         <v>49593</v>
@@ -699,11 +732,11 @@
       <c r="D4" s="1">
         <v>1.8699999999999999</v>
       </c>
-      <c r="E4" s="1">
-        <v>55.835027053368002</v>
+      <c r="E4" s="7">
+        <v>80.270700000000005</v>
       </c>
       <c r="F4" s="1">
-        <v>14.5129538913306</v>
+        <v>13.082700000000001</v>
       </c>
       <c r="G4" s="1">
         <v>108.46</v>
@@ -712,12 +745,12 @@
         <v>25556999999</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5" s="5">
         <v>33020</v>
@@ -728,11 +761,11 @@
       <c r="D5" s="1">
         <v>1.87</v>
       </c>
-      <c r="E5" s="1">
-        <v>63.1176829019685</v>
+      <c r="E5" s="7">
+        <v>88.363900000000001</v>
       </c>
       <c r="F5" s="1">
-        <v>11.1788030572471</v>
+        <v>22.572600000000001</v>
       </c>
       <c r="G5" s="1">
         <v>153.34</v>
@@ -741,12 +774,12 @@
         <v>25556943999</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B6" s="5">
         <v>654404</v>
@@ -757,11 +790,11 @@
       <c r="D6" s="1">
         <v>2.1800000000000002</v>
       </c>
-      <c r="E6" s="1">
-        <v>62.931857586919598</v>
+      <c r="E6" s="7">
+        <v>77.5946</v>
       </c>
       <c r="F6" s="1">
-        <v>15.210994969856801</v>
+        <v>12.9716</v>
       </c>
       <c r="G6" s="1">
         <v>82.84</v>
@@ -770,12 +803,12 @@
         <v>25556943999</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B7" s="5">
         <v>26138</v>
@@ -786,11 +819,11 @@
       <c r="D7" s="1">
         <v>1.77</v>
       </c>
-      <c r="E7" s="1">
-        <v>65.393588608649694</v>
+      <c r="E7" s="7">
+        <v>78.486699999999999</v>
       </c>
       <c r="F7" s="1">
-        <v>8.3279514091542595</v>
+        <v>17.385000000000002</v>
       </c>
       <c r="G7" s="1">
         <v>95.58</v>
@@ -799,12 +832,12 @@
         <v>255534999</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5">
         <v>6991</v>
@@ -815,11 +848,11 @@
       <c r="D8" s="1">
         <v>3.4899999999999998</v>
       </c>
-      <c r="E8" s="1">
-        <v>59.187904077751099</v>
+      <c r="E8" s="7">
+        <v>73.856700000000004</v>
       </c>
       <c r="F8" s="1">
-        <v>15.153801298963399</v>
+        <v>18.520399999999999</v>
       </c>
       <c r="G8" s="1">
         <v>520.01</v>
@@ -828,12 +861,12 @@
         <v>255569499</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B9" s="5">
         <v>27801</v>
@@ -844,11 +877,11 @@
       <c r="D9" s="1">
         <v>1.77</v>
       </c>
-      <c r="E9" s="1">
-        <v>58.591091622151097</v>
+      <c r="E9" s="7">
+        <v>72.571399999999997</v>
       </c>
       <c r="F9" s="1">
-        <v>13.5219738624725</v>
+        <v>23.022500000000001</v>
       </c>
       <c r="G9" s="1">
         <v>90.27</v>
@@ -857,12 +890,12 @@
         <v>255569599</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B10" s="5">
         <v>123620</v>
@@ -873,11 +906,11 @@
       <c r="D10" s="1">
         <v>1.77</v>
       </c>
-      <c r="E10" s="1">
-        <v>50.643927582648601</v>
+      <c r="E10" s="7">
+        <v>75.787300000000002</v>
       </c>
       <c r="F10" s="1">
-        <v>6.6643990833398101</v>
+        <v>26.912400000000002</v>
       </c>
       <c r="G10" s="1">
         <v>177</v>
@@ -886,12 +919,12 @@
         <v>255569899</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1">
         <v>275</v>
@@ -902,11 +935,11 @@
       <c r="D11" s="1">
         <v>1.35</v>
       </c>
-      <c r="E11" s="1">
-        <v>64.448706384989094</v>
+      <c r="E11" s="7">
+        <v>80.946200000000005</v>
       </c>
       <c r="F11" s="1">
-        <v>13.513460586571901</v>
+        <v>26.846699999999998</v>
       </c>
       <c r="G11" s="1">
         <v>37.799999999999997</v>
@@ -915,12 +948,12 @@
         <v>25556999999</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B12" s="5">
         <v>2085</v>
@@ -931,11 +964,11 @@
       <c r="D12" s="1">
         <v>2.1800000000000002</v>
       </c>
-      <c r="E12" s="1">
-        <v>62.249317359532</v>
+      <c r="E12" s="7">
+        <v>76.779399999999995</v>
       </c>
       <c r="F12" s="1">
-        <v>9.0296515306990095</v>
+        <v>30.7333</v>
       </c>
       <c r="G12" s="1">
         <v>78.48</v>
@@ -944,12 +977,12 @@
         <v>255566</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B13" s="5">
         <v>452963</v>
@@ -960,11 +993,11 @@
       <c r="D13" s="1">
         <v>1.8699999999999999</v>
       </c>
-      <c r="E13" s="1">
-        <v>60.936559822045702</v>
+      <c r="E13" s="7">
+        <v>77.412599999999998</v>
       </c>
       <c r="F13" s="1">
-        <v>4.0774691098165299</v>
+        <v>23.259899999999998</v>
       </c>
       <c r="G13" s="1">
         <v>57.97</v>
@@ -973,12 +1006,12 @@
         <v>25556999999</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B14" s="5">
         <v>14806</v>
@@ -989,11 +1022,11 @@
       <c r="D14" s="1">
         <v>3.4899999999999998</v>
       </c>
-      <c r="E14" s="1">
-        <v>54.298286694430203</v>
+      <c r="E14" s="7">
+        <v>85.137600000000006</v>
       </c>
       <c r="F14" s="1">
-        <v>12.741315215655</v>
+        <v>25.594100000000001</v>
       </c>
       <c r="G14" s="1">
         <v>97.72</v>
@@ -1002,12 +1035,12 @@
         <v>25556999999</v>
       </c>
       <c r="I14" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="B15" s="5">
         <v>68896</v>
@@ -1018,11 +1051,11 @@
       <c r="D15" s="1">
         <v>1.7699999999999998</v>
       </c>
-      <c r="E15" s="1">
-        <v>61.852296928923501</v>
+      <c r="E15" s="7">
+        <v>91.736199999999997</v>
       </c>
       <c r="F15" s="1">
-        <v>13.6345528207182</v>
+        <v>26.144500000000001</v>
       </c>
       <c r="G15" s="1">
         <v>77.88</v>
@@ -1034,7 +1067,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
@@ -1047,11 +1080,11 @@
       <c r="D16" s="1">
         <v>1.7699999999999998</v>
       </c>
-      <c r="E16" s="1">
-        <v>54.371961944760002</v>
+      <c r="E16" s="7">
+        <v>74.797300000000007</v>
       </c>
       <c r="F16" s="1">
-        <v>10.676199149973399</v>
+        <v>34.0837</v>
       </c>
       <c r="G16" s="1">
         <v>77.88</v>
@@ -1060,12 +1093,12 @@
         <v>255569499</v>
       </c>
       <c r="I16" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="2" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="B17" s="5">
         <v>68896</v>
@@ -1076,11 +1109,11 @@
       <c r="D17" s="1">
         <v>1.7699999999999998</v>
       </c>
-      <c r="E17" s="1">
-        <v>63.008638477363398</v>
+      <c r="E17" s="7">
+        <v>73.827799999999996</v>
       </c>
       <c r="F17" s="1">
-        <v>7.0740923735554402</v>
+        <v>15.4909</v>
       </c>
       <c r="G17" s="1">
         <v>77.88</v>
@@ -1092,7 +1125,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
@@ -1105,11 +1138,11 @@
       <c r="D18" s="1">
         <v>1.7699999999999998</v>
       </c>
-      <c r="E18" s="1">
-        <v>65.736371147365702</v>
+      <c r="E18" s="7">
+        <v>76.936599999999999</v>
       </c>
       <c r="F18" s="1">
-        <v>7.1288706860397602</v>
+        <v>8.5241000000000007</v>
       </c>
       <c r="G18" s="1">
         <v>77.88</v>
@@ -1121,7 +1154,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
@@ -1134,11 +1167,11 @@
       <c r="D19" s="1">
         <v>1.7699999999999998</v>
       </c>
-      <c r="E19" s="1">
-        <v>60.893906128454098</v>
+      <c r="E19" s="7">
+        <v>85.309600000000003</v>
       </c>
       <c r="F19" s="1">
-        <v>6.7046040978052401</v>
+        <v>23.344100000000001</v>
       </c>
       <c r="G19" s="1">
         <v>77.88</v>
